--- a/2ESA1/data/fb.xlsx
+++ b/2ESA1/data/fb.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selinium\2ESA1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\framework\2ESA1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BD5EF3-7BE5-4B3C-B996-7FA4165AE880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48488975-26E3-4D7C-81BB-BFB704AD05D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid" sheetId="1" r:id="rId1"/>
-    <sheet name="valid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -105,9 +104,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,55 +431,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B7CD33-CE07-42FD-BB2D-B9FB5873DADA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1234657</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>7648293</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7843029969</v>
       </c>
     </row>
   </sheetData>
@@ -481,44 +498,7 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{0705D8A2-D2D5-48B7-9BE7-BCFEB6B74C81}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{41889E5B-1E07-4F33-8B11-94E321007016}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{19B73D9C-6AE1-461C-BAC8-BD983A6FD50A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4CA4D9-23BC-40D7-962D-E0B8F01CC6C1}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>7843029969</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6ED0D623-E08A-43E0-AED5-CAF6FAC37C34}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{C723FD7C-97C9-43F6-AB5D-A566BA7F1B1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
